--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3049.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3049.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2046927473634536</v>
+        <v>0.5580651760101318</v>
       </c>
       <c r="B1">
-        <v>0.3400366985264111</v>
+        <v>3.997966766357422</v>
       </c>
       <c r="C1">
-        <v>1.139278464573594</v>
+        <v>6.21281909942627</v>
       </c>
       <c r="D1">
-        <v>4.727448564422104</v>
+        <v>1.504218697547913</v>
       </c>
       <c r="E1">
-        <v>4.002250666586303</v>
+        <v>0.8490974903106689</v>
       </c>
     </row>
   </sheetData>
